--- a/Data/AllCCDetails.xlsx
+++ b/Data/AllCCDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramana/eclipse-workspace/DKatalis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315951DD-A496-E647-84D6-36B2F59DB69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7922F6A8-5C07-4949-993B-919DACA5C38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15960" xr2:uid="{9E97F4CD-4B42-A24E-835E-BD5FDBA8C5B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Card Number</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Banks OTP</t>
+  </si>
+  <si>
+    <t>112233</t>
   </si>
 </sst>
 </file>
@@ -96,13 +99,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,7 +795,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -827,8 +831,8 @@
       <c r="C2" s="5">
         <v>123</v>
       </c>
-      <c r="D2" s="5">
-        <v>112233</v>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,8 +845,8 @@
       <c r="C3" s="5">
         <v>123</v>
       </c>
-      <c r="D3" s="5">
-        <v>112233</v>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
